--- a/test_schedule_result.xlsx
+++ b/test_schedule_result.xlsx
@@ -83,13 +83,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -534,7 +534,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>JOB01_001</t>
+          <t>JOB01_003</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -544,32 +544,38 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표준비실</t>
         </is>
       </c>
       <c r="F2" s="4" t="n">
         <v>0.375</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3784722222222222</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>토론면접-01</t>
+          <t>발표준비-01</t>
         </is>
       </c>
       <c r="L2" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +584,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>JOB01_002</t>
+          <t>JOB01_003</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -588,32 +594,38 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표면접</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실A</t>
         </is>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.375</v>
+        <v>0.3784722222222222</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>토론면접-01</t>
+          <t>발표면접-01</t>
         </is>
       </c>
       <c r="L3" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -622,7 +634,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>JOB01_003</t>
+          <t>JOB01_004</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -632,32 +644,38 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표준비</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표준비실</t>
         </is>
       </c>
       <c r="F4" s="4" t="n">
         <v>0.375</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3784722222222222</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>토론면접-01</t>
+          <t>발표준비-01</t>
         </is>
       </c>
       <c r="L4" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -676,32 +694,38 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>토론면접</t>
+          <t>발표면접</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>발표면접실B</t>
         </is>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.375</v>
+        <v>0.3784722222222222</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="n"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>발표준비+발표면접</t>
+        </is>
+      </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>토론면접-01</t>
+          <t>발표면접-02</t>
         </is>
       </c>
       <c r="L5" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -710,7 +734,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>JOB01_005</t>
+          <t>JOB01_001</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -725,14 +749,14 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.375</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4097222222222222</v>
       </c>
       <c r="H6" s="3" t="n">
         <v>30</v>
@@ -754,7 +778,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JOB01_006</t>
+          <t>JOB01_002</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -769,14 +793,14 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0.375</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4097222222222222</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>30</v>
@@ -798,7 +822,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>JOB01_001</t>
+          <t>JOB01_003</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -808,38 +832,32 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>발표준비</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>발표준비실</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F8" s="4" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.3993055555555556</v>
+        <v>0.4097222222222222</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>발표준비+발표면접</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>발표준비-01</t>
+          <t>토론면접-01</t>
         </is>
       </c>
       <c r="L8" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -848,7 +866,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JOB01_001</t>
+          <t>JOB01_004</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -858,38 +876,32 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>발표면접실A</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F9" s="4" t="n">
-        <v>0.3993055555555556</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.4097222222222222</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>발표준비+발표면접</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>발표면접-01</t>
+          <t>토론면접-01</t>
         </is>
       </c>
       <c r="L9" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -898,7 +910,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>JOB01_002</t>
+          <t>JOB01_005</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -908,38 +920,32 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>발표준비</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>발표준비실</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F10" s="4" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.3993055555555556</v>
+        <v>0.4097222222222222</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>발표준비+발표면접</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>발표준비-01</t>
+          <t>토론면접-01</t>
         </is>
       </c>
       <c r="L10" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -948,7 +954,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JOB01_002</t>
+          <t>JOB01_006</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -958,38 +964,32 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>발표면접</t>
+          <t>토론면접</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>발표면접실B</t>
+          <t>토론면접실B</t>
         </is>
       </c>
       <c r="F11" s="4" t="n">
-        <v>0.3993055555555556</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>0.4097222222222222</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>발표준비+발표면접</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>발표면접-02</t>
+          <t>토론면접-01</t>
         </is>
       </c>
       <c r="L11" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -998,7 +998,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>JOB01_003</t>
+          <t>JOB01_005</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>JOB01_003</t>
+          <t>JOB01_005</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>JOB01_004</t>
+          <t>JOB01_006</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>JOB01_004</t>
+          <t>JOB01_006</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>JOB01_005</t>
+          <t>JOB01_001</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>JOB01_005</t>
+          <t>JOB01_001</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>JOB01_006</t>
+          <t>JOB01_002</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>JOB01_006</t>
+          <t>JOB01_002</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1441,17 +1441,81 @@
       </c>
       <c r="E1" s="5" t="inlineStr">
         <is>
-          <t>토론면접실A</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="90" customHeight="1">
+          <t>토론면접실B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
       <c r="A2" s="6" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_003
+JOB01_004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>09:05</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_003</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>09:10</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_003</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>09:15</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_003</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="90" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>JOB01_001
 JOB01_002
@@ -1462,13 +1526,13 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="90" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>09:05</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
+    <row r="7" ht="90" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>09:25</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>JOB01_001
 JOB01_002
@@ -1479,13 +1543,13 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="90" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>09:10</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
+    <row r="8" ht="90" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
         <is>
           <t>JOB01_001
 JOB01_002
@@ -1496,13 +1560,13 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="90" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>09:15</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
+    <row r="9" ht="90" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>JOB01_001
 JOB01_002
@@ -1513,13 +1577,13 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="90" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
+    <row r="10" ht="90" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>JOB01_001
 JOB01_002
@@ -1530,13 +1594,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="90" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>09:25</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
+    <row r="11" ht="90" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>JOB01_001
 JOB01_002
@@ -1547,161 +1611,97 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>JOB01_005
+JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>09:55</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>10:05</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_005</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_006</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
         <is>
           <t>JOB01_001
 JOB01_002</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>09:35</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_001</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_002</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>09:40</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_001</t>
-        </is>
-      </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_002</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>09:45</t>
-        </is>
-      </c>
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_001</t>
-        </is>
-      </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_002</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>JOB01_003
-JOB01_004</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>09:55</t>
-        </is>
-      </c>
-      <c r="B13" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_003</t>
-        </is>
-      </c>
-      <c r="C13" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_004</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_003</t>
-        </is>
-      </c>
-      <c r="C14" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_004</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>10:05</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_003</t>
-        </is>
-      </c>
-      <c r="C15" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_004</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>10:10</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>JOB01_005
-JOB01_006</t>
-        </is>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
           <t>10:15</t>
         </is>
       </c>
-      <c r="B17" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_005</t>
-        </is>
-      </c>
-      <c r="C17" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_006</t>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_001</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_002</t>
         </is>
       </c>
     </row>
@@ -1711,14 +1711,14 @@
           <t>10:20</t>
         </is>
       </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_005</t>
-        </is>
-      </c>
-      <c r="C18" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_006</t>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_001</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_002</t>
         </is>
       </c>
     </row>
@@ -1728,14 +1728,14 @@
           <t>10:25</t>
         </is>
       </c>
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_005</t>
-        </is>
-      </c>
-      <c r="C19" s="9" t="inlineStr">
-        <is>
-          <t>JOB01_006</t>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_001</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>JOB01_002</t>
         </is>
       </c>
     </row>
